--- a/raw-data/empresas_codigos.xlsx
+++ b/raw-data/empresas_codigos.xlsx
@@ -144,18 +144,12 @@
     <t>GOBIERNO AUTONOMO DESCENTRALIZADO INTERCULTURAL Y PLURINACIONAL DEL MUNICIPIO DE CAYAMBE</t>
   </si>
   <si>
-    <t>tipo</t>
-  </si>
-  <si>
     <t>HOSPITAL</t>
   </si>
   <si>
     <t>GOBIERNO DESCENTRALIZADO</t>
   </si>
   <si>
-    <t>codigo</t>
-  </si>
-  <si>
     <t>EMPRESA PÚBLICA</t>
   </si>
   <si>
@@ -259,6 +253,12 @@
   </si>
   <si>
     <t>OTRO-ZGYE</t>
+  </si>
+  <si>
+    <t>codigo_empresa</t>
+  </si>
+  <si>
+    <t>tipo_empresa</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,10 +630,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,10 +652,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,10 +663,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,10 +674,10 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,10 +685,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,10 +696,10 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,10 +707,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,10 +718,10 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,10 +729,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,10 +740,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,10 +762,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,10 +773,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,10 +795,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,10 +806,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,10 +828,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,10 +839,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,10 +850,10 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +861,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,10 +916,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,10 +927,10 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,10 +938,10 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,10 +960,10 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
